--- a/tspi/ciclo-1/task1/20106381.xlsx
+++ b/tspi/ciclo-1/task1/20106381.xlsx
@@ -29,7 +29,7 @@
     <t>Quality/Process Manager</t>
   </si>
   <si>
-    <t>Experimiento GitHub #1.</t>
+    <t>Ver video tutorial de GitHub.</t>
   </si>
   <si>
     <t>Realizar el lanzamiento del ciclo #1 de TSPi.</t>
@@ -179,18 +179,18 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="39.8666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.66666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="19.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.0666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.68627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="1">
